--- a/2025-03-03_o3-mini_feedback_sheets/overall_gen/Esophageal stricture_gen_overall.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/overall_gen/Esophageal stricture_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Progressive dysphagia for solids, often initially mild and worsening over time</t>
+          <t>Gradual onset of progressive dysphagia to solids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This pattern is highly suggestive as esophageal strictures typically result in gradually evolving difficulty swallowing solids due to luminal narrowing.</t>
+          <t>A gradually worsening difficulty swallowing solids strongly supports the development of a fixed narrowing of the esophageal lumen consistent with an esophageal stricture.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Intermittent dysphagia that is non-progressive and varies with meal consistency</t>
+          <t>Sudden onset of dysphagia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Non-progressive symptoms are less consistent with the fixed nature of a structural stricture, which typically causes persistent and worsening symptoms.</t>
+          <t>An abrupt onset rather than a gradual progression is less typical for esophageal strictures, which usually evolve over time with chronic injury.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD) with chronic heartburn</t>
+          <t>History of long-standing gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GERD is a common precursor to acid-induced injury and subsequent scar formation, leading to stricture development.</t>
+          <t>A prolonged history of acid reflux predisposes to chronic esophageal injury and subsequent stricture formation.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dysphagia that improves significantly with changes in eating habits or liquid intake</t>
+          <t>Dysphagia that equally affects both liquids and solids from the start</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Improvement with simple measures may indicate a functional motility disorder rather than a fixed anatomic narrowing.</t>
+          <t>A simultaneous difficulty with liquids and solids favors a motility disorder rather than a fixed mechanical obstruction like an esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Episodes of food impaction requiring medical intervention</t>
+          <t>Sensation of food impaction upon swallowing</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Repeated food impactions are often seen when the esophagus is narrowed, which is a key feature of esophageal stricture.</t>
+          <t>Feeling like food is getting stuck is indicative of an anatomic blockage in the esophagus, which aligns with structural narrowing from a stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of any history of acid reflux or GERD symptoms</t>
+          <t>Intermittent symptoms with periods of complete normal swallowing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Without GERD or other injurious acid exposure, the likelihood of an acid-induced stricture is reduced.</t>
+          <t>Intermittent dysphagia suggests a functional or motility issue rather than a persistent, structurally fixed narrowing in the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A reported history of caustic ingestion or chemical injury to the esophagus</t>
+          <t>Associated weight loss due to difficulty eating</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caustic injury frequently leads to scarring and stricture formation, directly supporting the diagnosis.</t>
+          <t>Weight loss secondary to a progressive inability to ingest adequate nutrition supports a diagnosis where esophageal passage is compromised, such as in esophageal strictures.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lack of prior esophageal injury, such as caustic ingestion or instrumentation-related injury</t>
+          <t>Recent, short course of symptoms without history of reflux</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Without a clear history of esophageal injury, the probability of developing a stricture is lessened, making alternative diagnoses more likely.</t>
+          <t>The lack of a chronic exposure to reflux or other contributing factors reduces the likelihood of developing an esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Recent history of esophageal instrumentation (such as endoscopy) leading to iatrogenic injury</t>
+          <t>Absence of pain, suggesting a non-inflammatory, mechanical narrowing</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Iatrogenic injury is a known risk factor for local scarring and stricture formation.</t>
+          <t>Lack of significant odynophagia (painful swallowing) supports a structural rather than inflammatory etiology, which is consistent with strictures that are mechanical.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Symptoms that are more consistent with a possible motility disorder rather than luminal narrowing</t>
+          <t>Absence of sensation of food sticking in the esophagus</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The presence of motility-related dysphagia rather than fixed obstruction argues against the physical narrowing seen in strictures.</t>
+          <t>A lack of the characteristic feeling of food impaction argues against an anatomic narrowing of the esophagus, making a stricture less likely.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documented history of Gastroesophageal Reflux Disease (GERD)</t>
+          <t>Past Medical History of chronic Gastroesophageal Reflux Disease (GERD)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERD is a well-known risk factor for peptic esophageal strictures due to ongoing acid injury resulting in fibrosis and narrowing.</t>
+          <t>GERD is a highly specific risk factor for developing peptic esophageal strictures due to repeated acid exposure causing mucosal injury and scarring.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of primary esophageal motility disorder (e.g., achalasia)</t>
+          <t>Absence of a history of chronic acid reflux symptoms</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Esophageal motility disorders like achalasia typically cause dysphagia without the structural narrowing characteristic of strictures, decreasing the likelihood of a stricture.</t>
+          <t>Without a history of ongoing acid reflux, one of the major risk factors for peptic strictures is missing, reducing the likelihood of an esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Barrett's Esophagus</t>
+          <t>History of corrosive substance ingestion</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barrett's Esophagus often arises from prolonged GERD and may be associated with mucosal injury leading to stricturing.</t>
+          <t>Ingestion of corrosive agents is known to cause direct injury to the esophageal mucosa, leading to inflammation, scarring, and subsequent stricture formation.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Past diagnosis of connective tissue disease such as scleroderma</t>
+          <t>No history of corrosive ingestion</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Scleroderma more frequently causes dysmotility and smooth muscle atrophy in the esophagus rather than causing fibrotic strictures.</t>
+          <t>The lack of exposure to corrosive substances eliminates a key etiologic factor for caustic injury-induced esophageal strictures.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Past history of caustic ingestion</t>
+          <t>Past Surgical History involving esophageal interventions (e.g., esophageal dilation)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ingestion of caustic substances causes injury and scarring, frequently leading to the development of esophageal strictures.</t>
+          <t>A history of previous esophageal dilation procedures may indicate prior presence of an esophageal stricture and recurrent narrowing.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of neuromuscular disorders (e.g., history of stroke affecting swallowing)</t>
+          <t>Current medications including disease-modifying antireflux therapies (e.g., Proton Pump Inhibitors)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Neurological causes of dysphagia typically result in functional impairment rather than a fixed structural narrowing in the esophagus.</t>
+          <t>Effective medical management with proton pump inhibitors decreases acid exposure, lowering the risk of stricture formation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of radiation therapy to the chest</t>
+          <t>History of radiation therapy to the chest or mediastinum</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Radiation therapy is known to damage esophageal tissue and can result in fibrotic strictures, particularly when the esophagus is in the treatment field.</t>
+          <t>Radiation therapy can cause fibrosis and stricture formation in the esophagus as a delayed side effect due to tissue scarring.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Prior endoscopic evaluations with normal esophageal anatomy</t>
+          <t>Past Surgical History negative for esophageal interventions</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A history of normal endoscopic findings suggests the absence of chronic injury or scarring that would lead to stricture formation.</t>
+          <t>No previous esophageal procedures implies that there has been no clinical indication of an existing stricture or related complications.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Previous esophageal surgery, such as fundoplication, due to severe reflux</t>
+          <t>Past Medical History of eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Surgical intervention for severe reflux implies a history of significant esophageal injury, which predisposes to stricture formation.</t>
+          <t>Eosinophilic esophagitis, a chronic inflammatory condition, can lead to remodeling and stricturing of the esophagus over time.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lack of history of chronic reflux or acid peptic disease</t>
+          <t>Lack of prior radiation exposure to the chest or mediastinum</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Without a history of chronic reflux, there is less impetus for the development of acid-induced injury and consequent stricture formation.</t>
+          <t>Absence of prior radiation therapy removes another significant risk factor for developing radiation-induced esophageal strictures.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of caustic ingestion due to occupational exposure or accidental exposure in the household.</t>
+          <t>History of chronic alcohol consumption observed in the patient's social history.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A history of caustic ingestion is a potent risk factor for esophageal stricture because the corrosive injury can induce scarring and narrowing of the esophagus.</t>
+          <t>Chronic alcohol use is associated with increased gastroesophageal reflux, which can lead to esophageal mucosal injury and strictures over time.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of a family history of GERD, Barrett's esophagus, or other esophageal disorders.</t>
+          <t>Absence of a history of heavy alcohol consumption in the social history.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lack of a genetic predisposition reduces the likelihood of developing conditions that lead to esophageal stricture.</t>
+          <t>Without chronic alcohol use, the risk of developing reflux-related esophageal injury and subsequent strictures is decreased.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Family history of gastroesophageal reflux disease (GERD) or Barrett's esophagus.</t>
+          <t>History of long-term tobacco smoking reported in social history.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A genetic predisposition to GERD, which is a common cause of chronic acid exposure and subsequent stricture formation, supports the diagnosis of esophageal stricture.</t>
+          <t>Tobacco smoking is linked to reflux esophagitis and Barrett’s esophagus, contributing to the development of esophageal strictures.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minimal or no alcohol consumption.</t>
+          <t>Non-smoking status as reported in the social history.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Low alcohol use decreases the risk of developing chronic GERD and its complications, making stricture less likely.</t>
+          <t>Not smoking reduces the risk of reflux esophagitis and other esophageal insults that could lead to stricture formation.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Heavy alcohol consumption as a health behavior.</t>
+          <t>Reports of previous accidental ingestion of caustic substances during childhood or adulthood.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Excessive alcohol intake can worsen GERD and promote mucosal injury, indirectly contributing to esophageal stricture development.</t>
+          <t>Caustic ingestions directly damage the esophageal mucosa and are a well-known cause of strictures, making this a strong risk factor.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Non-smoking status.</t>
+          <t>No history of accidental or intentional caustic substance ingestion.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not smoking eliminates a known risk factor for promoting reflux and esophageal mucosal injury, thus reducing the probability of stricture formation.</t>
+          <t>The absence of exposure to caustic agents markedly lowers the likelihood of esophageal mucosal damage that predisposes to stricture formation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of smoking.</t>
+          <t>Family history of complications from gastroesophageal reflux disease (GERD).</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smoking is associated with increased risk of reflux and esophageal injury, which may predispose to stricture formation over time.</t>
+          <t>A family history that includes severe GERD complications may indicate a genetic or familial predisposition to reflux-related esophageal damage and strictures.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stable social environment with limited exposure to corrosive chemicals or occupational hazards.</t>
+          <t>Lack of family history of gastroesophageal reflux disease complications.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A safe living and working environment minimizes the risk of accidental or occupational corrosive exposures that can lead to esophageal strictures.</t>
+          <t>The absence of familial predisposition to GERD-related complications suggests a lower genetic risk for developing esophageal strictures.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Social environment with high incidence of risk behaviors (e.g., residing in areas with prevalent corrosive chemical exposures).</t>
+          <t>Occupational stress or work conditions that promote unhealthy eating habits and increased reflux incidents.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Exposure to environmental or occupational hazards that include corrosive substances can increase the likelihood of esophageal injury and subsequent stricture formation.</t>
+          <t>High levels of stress and associated unhealthy behaviors can exacerbate reflux symptoms, indirectly contributing to the risk for esophageal strictures.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engagement in a health-conscious lifestyle with regular medical check-ups.</t>
+          <t>Engagement in a healthy lifestyle with balanced diet and regular exercise.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Active health management and early intervention in reflux symptoms can prevent progression to esophageal stricture, serving as strong evidence against its development.</t>
+          <t>A healthy lifestyle minimizes reflux occurrence and esophageal irritation, reducing the risk for the development of esophageal strictures.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unintentional weight loss observed on physical exam</t>
+          <t>Clinically observed weight loss on physical exam, including a thin appearance and decreased muscle mass</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with esophageal stricture often experience chronic dysphagia leading to reduced oral intake and resultant weight loss, making it a relatively specific sign when present.</t>
+          <t>Chronic esophageal strictures often lead to difficulty eating, which can result in significant weight loss and muscle wasting. This finding is relatively specific in a patient with a history of dysphagia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal weight and body mass observed on exam</t>
+          <t>Normal body habitus with no evidence of weight loss on exam</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal weight or lack of weight loss suggests that the patient is not experiencing the nutritional deficits typically seen with significant esophageal stricture.</t>
+          <t>A normal weight and physical appearance reduce the suspicion for a chronic obstructive process like an esophageal stricture that typically leads to nutritional deficiencies.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cachexia noted during physical assessment</t>
+          <t>Observable signs of malnutrition such as cachexia evident on exam</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cachexia, or severe muscle wasting, suggests prolonged nutritional deprivation which is consistent with chronic esophageal narrowing and stricture.</t>
+          <t>Cachexia indicates a long-term inability to absorb sufficient nutrients, supporting the presence of an esophageal stricture that impairs normal swallowing function.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adequate hydration status with moist mucous membranes and normal skin turgor</t>
+          <t>Well-hydrated mucous membranes without signs of dehydration</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of dehydration signs indicates that the patient is likely maintaining adequate intake, which is less supportive of a severe esophageal stricture.</t>
+          <t>Adequate hydration status is less consistent with a significant swallowing difficulty that would be expected in esophageal stricture, reducing its likelihood.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Signs of dehydration such as dry mucous membranes and decreased skin turgor</t>
+          <t>Physical exam findings of dehydration (eg, dry mucous membranes)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic dysphagia can result in inadequate fluid intake, leading to dehydration findings that support the presence of an esophageal stricture.</t>
+          <t>Difficulty in swallowing liquids due to esophageal narrowing may lead to dehydration, making this a supportive sign when present.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No cachexia present on physical exam</t>
+          <t>Lack of observed drooling or excessive salivation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of cachexia or muscle wasting diminishes the likelihood of chronic nutritional compromise from an esophageal stricture.</t>
+          <t>The absence of drooling or saliva pooling makes it less likely that there is an obstruction in the esophagus, as these are common compensatory findings in obstruction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Poor nutritional status as evidenced by low body mass index (BMI)</t>
+          <t>Excess salivation or drooling noted during the exam</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A low BMI, determined during the physical exam, may indicate long-standing difficulty in swallowing and nutritional compromise associated with esophageal stricture.</t>
+          <t>Increased drooling can be a compensatory mechanism when swallowing is difficult, which is consistent with obstructive esophageal pathology such as a stricture.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal respiratory examination without signs of aspiration</t>
+          <t>Normal appearance and function of the oropharyngeal region on physical exam</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A completely normal lung exam, with no evidence of aspiration pneumonia or respiratory distress, reduces the suspicion for a stricture causing significant swallowing dysfunction.</t>
+          <t>A normal oropharyngeal exam suggests that there is no significant mechanical limitation affecting swallowing, which argues against an esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Evidence of aspiration or respiratory distress on exam</t>
+          <t>Direct observation of choking or coughing during a meal or water trial</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>If chronic esophageal stricture leads to aspiration of food contents, physical exam might reveal subtle respiratory findings supportive of the diagnosis.</t>
+          <t>Episodes of choking or coughing during swallowing suggest that there is an obstruction or narrowing in the esophagus, a common presentation in esophageal strictures.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stable vital signs including normal heart rate and blood pressure</t>
+          <t>Patient exhibits no coughing or choking during a meal or water trial observed on exam</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal vital signs in the context of swallowing assessments suggest that there is no systemic compromise, which would be unusual in advanced esophageal stricture.</t>
+          <t>The absence of observable difficulty in swallowing, such as coughing or choking, is inconsistent with the progressive dysphagia associated with esophageal strictures.</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barium swallow demonstrating a fixed, narrow segment (rat-tail sign) in the esophagus</t>
+          <t>Barium swallow study showing a fixed, smooth narrowing of the esophageal lumen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This imaging finding is highly specific for an esophageal stricture as it indicates a permanent, non-relaxing narrowing often due to fibrosis.</t>
+          <t>This finding is highly specific for esophageal stricture as it directly demonstrates the structural narrowing that is characteristic of the condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,95 +1081,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal barium swallow indicates the absence of structural defects, strongly arguing against the presence of an esophageal stricture.</t>
+          <t>A normal barium swallow essentially rules out the structural narrowing characteristic of an esophageal stricture, providing strong evidence against its presence.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Endoscopic visualization of circumferential luminal narrowing</t>
+          <t>Endoscopic visualization of fibrotic scarring with concentric narrowing</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direct visualization during endoscopy that shows a consistent, circumferential narrowing strongly supports the presence of an esophageal stricture.</t>
+          <t>Direct endoscopic evidence of fibrotic scarring and a tapered narrowing in the esophagus strongly supports the diagnosis by showing the physical changes associated with a stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Endoscopic examination showing a normal, patent esophageal lumen</t>
+          <t>Normal endoscopic findings with maintained esophageal caliber and lack of mucosal scarring</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>If endoscopy reveals no narrowing or irregularities within the esophagus, it is strong evidence against an esophageal stricture.</t>
+          <t>If endoscopy shows a normal esophageal lumen and no signs of scarring or narrowing, this counters the diagnosis of an esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT scan showing focal esophageal wall thickening with fibrotic changes</t>
+          <t>Computed tomography (CT) scan revealing focal esophageal wall thickening with luminal narrowing</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of localized wall thickening and signs suggestive of fibrosis on CT imaging favors a diagnosis of esophageal stricture.</t>
+          <t>A CT scan that identifies localized wall thickening and corresponding luminal narrowness can be a supportive imaging marker for an esophageal stricture, especially when other causes are excluded.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CT imaging demonstrating a normal esophageal wall without thickening or fibrotic changes</t>
+          <t>CT scan of the chest and upper abdomen with a normal esophageal wall thickness and no stricturing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A CT scan that shows a normal-caliber esophagus without wall abnormalities is inconsistent with a stricture.</t>
+          <t>A CT scan that demonstrates a normal esophageal wall without focal thickening or narrowing argues against the presence of a structural stricture.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Endoscopic ultrasound revealing a hyperechoic band corresponding to fibrous tissue</t>
+          <t>Fluoroscopic esophagram demonstrating delayed contrast transit and fixed narrowing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This finding indicates fibrotic alterations within the esophageal wall, a common cause of strictures.</t>
+          <t>Delayed transit of contrast material with fixed narrowing on fluoroscopy is indicative of an obstructive process such as an esophageal stricture, making this a strong indicator.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing normal peristaltic activity and sphincter function</t>
+          <t>Normal fluoroscopic findings on contrast swallow study indicating rapid passage without obstruction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal motility and function on manometry suggest that there is no structural obstruction such as an esophageal stricture.</t>
+          <t>A contrast swallow study that shows rapid and unobstructed passage of contrast is inconsistent with an esophageal stricture, which would slow transit due to narrowing.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Upper GI series revealing irregular or segmented narrowing of the esophageal lumen</t>
+          <t>Endoscopic ultrasound (EUS) showing layered disruption corresponding to fibrosis in the esophageal wall</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>An Upper GI series that shows an irregular, segmented narrowing is indicative of structural changes consistent with a stricture.</t>
+          <t>EUS can identify the fibrotic changes in the esophageal wall, which further substantiates the presence of a stricture.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dynamic swallowing study revealing transient, non-fixed narrowing</t>
+          <t>Esophageal manometry demonstrating normal peristalsis and unobstructed motility</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Transient narrowing during swallowing that quickly resolves is more consistent with a functional anomaly rather than a fixed esophageal stricture.</t>
+          <t>Since abnormal manometry is expected in obstructive esophageal lesions, a normal manometric study would strongly argue against the diagnosis of an esophageal stricture.</t>
         </is>
       </c>
     </row>
